--- a/GUI + Reviews/202512/EUSP.xlsx
+++ b/GUI + Reviews/202512/EUSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CF3CBAE-0707-4DC5-9974-B925810EC845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D0C0C4-7919-4DE0-AD26-5291B5FAD139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{90F7159A-3205-43AC-AA24-4003C9BF7794}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F62A2552-9CFE-492C-AEF3-F7EFAFAE3CAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3554,22 +3554,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C686940F-42D7-4BF6-9A06-C20AA43995A9}" name="Universe" displayName="Universe" ref="A1:M352" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M352" xr:uid="{C686940F-42D7-4BF6-9A06-C20AA43995A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF551079-D33F-432E-9CDA-9BE0FA176C57}" name="Universe" displayName="Universe" ref="A1:M352" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M352" xr:uid="{EF551079-D33F-432E-9CDA-9BE0FA176C57}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{6E3C1CB6-8887-42E2-B8A6-91D6B70BC6D1}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C2888518-C08A-4DBC-86C6-449725D8EC17}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{AED325E0-BFB6-4192-8E55-765FB2D86398}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6B16D7CA-004E-4E6F-9D83-D14D9195AC95}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E54794DD-4A6D-4D77-968B-D413DCFA1724}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E9430DB9-DE81-46CC-8BC4-284D7959ECAE}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{BC177C3F-9F1A-4DF1-A386-6390B336026B}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{01496087-070B-43B5-ADBD-941891B09554}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{A9E28680-8624-4530-ACAF-CC33F1CF4814}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{327AB781-6955-41C5-90B6-1FABCBEFCFA3}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{2268264C-B127-4B7F-A42E-C6088467A834}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{11771CBB-1963-4C5A-BE56-BCAC13B04B8F}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{7B3014FA-6D56-422F-B592-54560426AFAC}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FEDDE525-B29C-49F3-972F-AE8EFC1D2ED4}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FC87931D-7419-4B2E-8218-5612E284396A}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{2EEDBB55-B4AE-4BCD-AC24-479BD5B02DF7}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E5591A52-300E-4E7C-84D2-64C08CBC9BE2}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{56D34B68-1726-4BC7-AC60-451FCCD853A8}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B3AA2D27-9024-4A67-B615-43ECE948B78F}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2A70BC86-1E4F-4FE8-9134-4327E0189C90}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{B42E5A52-5B27-4176-A292-3123B25CC5D4}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{99FBF44E-5765-40FA-93F6-06823B8565FD}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{6856CE56-2578-4DA1-A547-24B2027193A9}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{14B7EEBF-55D3-4768-B804-D9211EB68C78}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{EA96BDD3-AF34-415F-80E7-089B5F076E5C}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{F95FF25C-B279-4104-BCDC-6E94ADF35CD5}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3891,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D2C212-48FB-4F7F-B410-FFBC4581476C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7F358B-A0CC-4094-B5D0-56713BF97BAF}">
   <dimension ref="A1:M352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
